--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,6 +55,90 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,66 +158,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -149,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,43 +197,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +217,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,67 +343,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,79 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,66 +410,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +432,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -502,6 +487,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1195,6 +1195,29 @@
         <v>21</v>
       </c>
       <c r="G9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
         <v>21</v>
       </c>
     </row>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>e</t>
   </si>
@@ -37,6 +37,54 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>d10</t>
   </si>
 </sst>
 </file>
@@ -44,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,6 +103,134 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -67,140 +243,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,67 +259,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,115 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,11 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,15 +473,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,17 +492,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,26 +520,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,7 +1058,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1059,11 +1107,11 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1082,11 +1130,11 @@
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1102,8 +1150,11 @@
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -1122,11 +1173,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -1142,7 +1193,10 @@
       <c r="B7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7">
@@ -1162,11 +1216,11 @@
       <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8">
         <v>17</v>
@@ -1185,11 +1239,11 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="F9">
         <v>21</v>
@@ -1208,11 +1262,11 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
       <c r="F10">
         <v>21</v>
